--- a/DOCUMENTACION/Diagrama de Gantt.xlsx
+++ b/DOCUMENTACION/Diagrama de Gantt.xlsx
@@ -125,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -170,6 +170,134 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -187,136 +315,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,31 +337,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,25 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,115 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,30 +536,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +573,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -614,6 +593,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,15 +642,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,143 +660,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +806,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -826,12 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1179,802 +1161,802 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
         <v>44136</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <f>D2+0</f>
         <v>44136</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <f>E2</f>
         <v>44136</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f>D3+1</f>
         <v>44137</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" ht="18.75" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D47" si="0">E3</f>
         <v>44137</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f>D4+1</f>
         <v>44138</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="18.75" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f>D5+1</f>
         <v>44139</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="18.75" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f>D6</f>
         <v>44139</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="18.75" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f>D7+1</f>
         <v>44140</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="18.75" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f>D8</f>
         <v>44140</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="18.75" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <f>D9</f>
         <v>44140</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="18.75" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f>D10+1</f>
         <v>44141</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="18.75" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f>D11</f>
         <v>44141</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="18.75" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <f>D12</f>
         <v>44141</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="18.75" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f>D13+1</f>
         <v>44142</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="18.75" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>44142</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <f>D14+1</f>
         <v>44143</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="18.75" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>44143</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f>D15</f>
         <v>44143</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="18.75" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>44143</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <f>D16+1</f>
         <v>44144</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="18.75" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>44144</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <f>D17+1</f>
         <v>44145</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="18.75" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>44145</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <f>D18</f>
         <v>44145</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="18.75" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>44145</v>
       </c>
-      <c r="E19" s="8">
-        <f>D19+1</f>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19:E24" si="1">D19+1</f>
         <v>44146</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="18.75" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>44146</v>
       </c>
-      <c r="E20" s="8">
-        <f>D20+1</f>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
         <v>44147</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="18.75" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>44147</v>
       </c>
-      <c r="E21" s="8">
-        <f>D21+1</f>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
         <v>44148</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="18.75" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>44148</v>
       </c>
-      <c r="E22" s="8">
-        <f>D22+1</f>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
         <v>44149</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="18.75" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>44149</v>
       </c>
-      <c r="E23" s="8">
-        <f>D23+1</f>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="18.75" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>44150</v>
       </c>
-      <c r="E24" s="8">
-        <f>D24+1</f>
-        <v>44151</v>
-      </c>
-      <c r="F24" s="9"/>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>44151</v>
+      </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="18.75" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E25" s="8">
-        <f>D25</f>
-        <v>44151</v>
-      </c>
-      <c r="F25" s="9"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" ref="E25:E30" si="2">D25</f>
+        <v>44151</v>
+      </c>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="18.75" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E26" s="8">
-        <f>D26</f>
-        <v>44151</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" ht="18.75" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E27" s="8">
-        <f>D27</f>
-        <v>44151</v>
-      </c>
-      <c r="F27" s="9"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" ht="18.75" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E28" s="8">
-        <f>D28</f>
-        <v>44151</v>
-      </c>
-      <c r="F28" s="9"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" ht="18.75" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E29" s="8">
-        <f>D29</f>
-        <v>44151</v>
-      </c>
-      <c r="F29" s="9"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="18.75" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E30" s="8">
-        <f>D30</f>
-        <v>44151</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="2"/>
+        <v>44151</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="18.75" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" ref="E31:E38" si="1">D31</f>
-        <v>44151</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:E38" si="3">D31</f>
+        <v>44151</v>
+      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="18.75" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" ht="18.75" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F33" s="9"/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" ht="18.75" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F34" s="9"/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="18.75" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="18.75" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F36" s="9"/>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" ht="18.75" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F37" s="9"/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" ht="37.5" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="1"/>
-        <v>44151</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="3"/>
+        <v>44151</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" ht="18.75" spans="1:6">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="8">
-        <f t="shared" si="0"/>
-        <v>44151</v>
-      </c>
-      <c r="E39" s="8">
-        <f>D39+1</f>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" ref="E39:E47" si="4">D39+1</f>
         <v>44152</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" ht="18.75" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>44152</v>
       </c>
-      <c r="E40" s="8">
-        <f>D40+1</f>
+      <c r="E40" s="6">
+        <f t="shared" si="4"/>
         <v>44153</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" ht="18.75" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>44153</v>
       </c>
-      <c r="E41" s="8">
-        <f>D41+1</f>
+      <c r="E41" s="6">
+        <f t="shared" si="4"/>
         <v>44154</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" ht="18.75" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>44154</v>
       </c>
-      <c r="E42" s="8">
-        <f>D42+1</f>
+      <c r="E42" s="6">
+        <f t="shared" si="4"/>
         <v>44155</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" ht="18.75" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>44155</v>
       </c>
-      <c r="E43" s="8">
-        <f>D43+1</f>
+      <c r="E43" s="6">
+        <f t="shared" si="4"/>
         <v>44156</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" ht="18.75" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
-      <c r="E44" s="8">
-        <f>D44+1</f>
+      <c r="E44" s="6">
+        <f t="shared" si="4"/>
         <v>44157</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" ht="18.75" spans="1:6">
-      <c r="A45" s="13"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>44157</v>
       </c>
-      <c r="E45" s="8">
-        <f>D45+1</f>
+      <c r="E45" s="6">
+        <f t="shared" si="4"/>
         <v>44158</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" ht="37.5" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
-      <c r="E46" s="8">
-        <f>D46+1</f>
+      <c r="E46" s="6">
+        <f t="shared" si="4"/>
         <v>44159</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" ht="18.75" spans="1:6">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
-      <c r="E47" s="8">
-        <f>D47+1</f>
+      <c r="E47" s="6">
+        <f t="shared" si="4"/>
         <v>44160</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
